--- a/growth-cross-country-africa-examples.xlsx
+++ b/growth-cross-country-africa-examples.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>National Income per Capita &amp; Life Expectancy: Levels &amp; Growth Rates</t>
   </si>
@@ -54,7 +54,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
@@ -63,7 +63,7 @@
     <r>
       <rPr>
         <u val="single"/>
-        <sz val="10"/>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
@@ -71,7 +71,34 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/braddelong/public-files/blob/master/growth-cross-country-africa-examples.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
@@ -87,7 +114,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -101,7 +128,7 @@
     <font>
       <b val="1"/>
       <sz val="18"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -111,8 +138,19 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <u val="single"/>
-      <sz val="10"/>
+      <sz val="8"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -126,13 +164,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -147,13 +185,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -162,7 +215,52 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -171,7 +269,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -180,73 +278,13 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -256,7 +294,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -290,18 +328,21 @@
     <xf numFmtId="10" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -317,7 +358,7 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -337,10 +378,12 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff800000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff000080"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1409,7 +1452,7 @@
   <cols>
     <col min="1" max="1" width="20.9062" style="1" customWidth="1"/>
     <col min="2" max="4" width="10.0391" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.50781" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.60156" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.0781" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1455,7 +1498,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="32.05" customHeight="1">
+    <row r="4" ht="38" customHeight="1">
       <c r="A4" t="s" s="11">
         <v>4</v>
       </c>
@@ -1467,16 +1510,16 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>3220</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>7190</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>11400</v>
       </c>
       <c r="E5" s="13"/>
@@ -1490,16 +1533,16 @@
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>564</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>621</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>1900</v>
       </c>
       <c r="E6" s="13"/>
@@ -1513,16 +1556,16 @@
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="A7" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>1680</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>2220</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>4430</v>
       </c>
       <c r="E7" s="13"/>
@@ -1536,16 +1579,16 @@
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="15">
         <v>8</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>1990</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>2130</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>3700</v>
       </c>
       <c r="E8" s="13"/>
@@ -1559,25 +1602,25 @@
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>637</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>3690</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="17">
         <v>17100</v>
       </c>
       <c r="E10" s="13"/>
@@ -1591,16 +1634,16 @@
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>824</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="17">
         <v>2710</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>6940</v>
       </c>
       <c r="E11" s="13"/>
@@ -1614,16 +1657,16 @@
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="A12" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <v>15200</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="17">
         <v>45700</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <v>56700</v>
       </c>
       <c r="E12" s="13"/>
@@ -1637,7 +1680,7 @@
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1645,7 +1688,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
+    <row r="14" ht="23" customHeight="1">
       <c r="A14" t="s" s="11">
         <v>12</v>
       </c>
@@ -1657,16 +1700,16 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="A15" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>38</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="20">
         <v>68</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="20">
         <v>71</v>
       </c>
       <c r="E15" s="13"/>
@@ -1680,16 +1723,16 @@
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
+      <c r="A16" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>31</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="20">
         <v>51</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="20">
         <v>69</v>
       </c>
       <c r="E16" s="13"/>
@@ -1703,16 +1746,16 @@
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="A17" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <v>45</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="20">
         <v>59</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="20">
         <v>66</v>
       </c>
       <c r="E17" s="13"/>
@@ -1726,16 +1769,16 @@
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="A18" t="s" s="15">
         <v>8</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <v>44</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="20">
         <v>46</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="20">
         <v>64</v>
       </c>
       <c r="E18" s="13"/>
@@ -1749,7 +1792,7 @@
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1758,16 +1801,16 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="A20" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="19">
         <v>41</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="20">
         <v>72</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="20">
         <v>78</v>
       </c>
       <c r="E20" s="13"/>
@@ -1781,16 +1824,16 @@
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="11">
+      <c r="A21" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="19">
         <v>35</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="20">
         <v>63</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <v>68</v>
       </c>
       <c r="E21" s="13"/>
@@ -1804,16 +1847,16 @@
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="A22" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="19">
         <v>68</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="20">
         <v>77</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="20">
         <v>79</v>
       </c>
       <c r="E22" s="13"/>
@@ -1827,7 +1870,7 @@
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1836,8 +1879,8 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" t="s" s="20">
+      <c r="A24" s="18"/>
+      <c r="B24" t="s" s="21">
         <v>13</v>
       </c>
       <c r="C24" s="13"/>
@@ -1847,8 +1890,10 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="18"/>
+      <c r="B25" t="s" s="21">
+        <v>14</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -1856,7 +1901,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -1865,7 +1910,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -1874,7 +1919,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1888,6 +1933,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0_xavfrB_h"/>
+    <hyperlink ref="B25" r:id="rId2" location="" tooltip="" display="https://github.com/braddelong/public-files/blob/master/growth-cross-country-africa-examples.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
